--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ikan, ayam</t>
+          <t>ayam, ikan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Ingredients</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recommendations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,7 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['mayonnaise']</t>
+          <t>['mayonn']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Whole bread tuna pizza, Tuna Mayo Sandwich, Ayam richeese fire wings + saus keju, Bruchetta Salmon Mayo #BeraniBaking, Tuna sandwich</t>
         </is>
       </c>
     </row>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ayam, ikan</t>
+          <t>tahu, tempe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['telur']</t>
+          <t>['ikan']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['mayonn']</t>
+          <t>['bawang']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Whole bread tuna pizza, Tuna Mayo Sandwich, Ayam richeese fire wings + saus keju, Bruchetta Salmon Mayo #BeraniBaking, Tuna sandwich</t>
+          <t>Orek tempe basah bumbu ulek, Sayur daun bawang dan tahu saus tiram, Perkedel Tahu Simple, Tumis orek tahu, Sambal tempe</t>
         </is>
       </c>
     </row>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ayam, kambing</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['bawang']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Nasi Goreng Kambing...ala kebon sirih, Tongseng Kambing #kitaberbagi, Sop kambing bening</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Recommendations</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,7 @@
           <t>Orek tempe basah bumbu ulek, Sayur daun bawang dan tahu saus tiram, Perkedel Tahu Simple, Tumis orek tahu, Sambal tempe</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +502,34 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Nasi Goreng Kambing...ala kebon sirih, Tongseng Kambing #kitaberbagi, Sop kambing bening</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ayam, tahu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['keju']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chicken Salad with dressing, Ayam richeese fire wings + saus keju, Perkedel Tahu Simple, Pie Kentang Ayam, Somay Ayam (frozen food)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:07:06</t>
         </is>
       </c>
     </row>
